--- a/docs/stats-inflate_time.xlsx
+++ b/docs/stats-inflate_time.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">STT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instance 100 times</t>
   </si>
   <si>
     <t xml:space="preserve">ModulesView Instante</t>
@@ -70,7 +67,6 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -78,6 +74,7 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -90,7 +87,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,12 +98,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF006633"/>
-        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -156,24 +147,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -213,7 +200,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006633"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -270,18 +257,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -291,145 +278,134 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>0.14214</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>1.89843</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="5" t="n">
+        <v>0.14552</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0.59724</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="n">
-        <v>0.0066</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>0.0155</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="C4" s="6" t="n">
-        <v>0.0152</v>
+      <c r="B4" s="5" t="n">
+        <v>0.24848</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.66034</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0.53427</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.09666</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>0.16947</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.89754</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>0.37842</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>1.1176</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>0.16421</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.66705</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>0.20764</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.34428</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>0.2093</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.84417</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>0.5089</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1.004</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>0.0143</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="n">
-        <v>0.0051</v>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>0.0149</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="n">
-        <v>0.0056</v>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>0.0157</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="n">
-        <v>0.0037</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>0.0199</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>0.01436</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>0.0212</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>0.021</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="n">
-        <v>0.0033</v>
-      </c>
-      <c r="C12" s="6" t="n">
-        <v>0.01757</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="8" t="n">
-        <f aca="false">AVERAGE(B3:B12)</f>
-        <v>0.00456</v>
-      </c>
-      <c r="C13" s="8" t="n">
-        <f aca="false">AVERAGE(C3:C12)</f>
-        <v>0.016963</v>
+      <c r="B12" s="7" t="n">
+        <f aca="false">AVERAGE(B2:B11)</f>
+        <v>0.270835</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <f aca="false">AVERAGE(C2:C11)</f>
+        <v>1.012731</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
